--- a/Part_3_Cleaning_and_Exploring_with_Pandas/data/nobel_winners.xlsx
+++ b/Part_3_Cleaning_and_Exploring_with_Pandas/data/nobel_winners.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WinnersSheet2" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vladamir Prelog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
   </si>
   <si>
     <t xml:space="preserve">Physics</t>
@@ -167,8 +164,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,77 +192,77 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1906</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -283,77 +284,77 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1921</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C3" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1933</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1911</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
